--- a/biology/Botanique/Pilot_(pomme)/Pilot_(pomme).xlsx
+++ b/biology/Botanique/Pilot_(pomme)/Pilot_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilot est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'un calibre moyen, la pomme est très bonne à cuire ou à croquer.
 Son épicarpe (épiderme externe) est rouge et jaune à maturité.
-Sa chair est croquante ; sa saveur acidulée et parfumée rappelle la variété "Reine des reinettes". C'est une pomme de mi-saison, assez ferme[1].
+Sa chair est croquante ; sa saveur acidulée et parfumée rappelle la variété "Reine des reinettes". C'est une pomme de mi-saison, assez ferme.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variété de pomme a été obtenue en Allemagne en 1980 par l'institut de recherches en arboriculture de Dresde-Pillnitz[1].
-Les éditeurs en sont Davodeau Ligonnière et Starfruit[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété de pomme a été obtenue en Allemagne en 1980 par l'institut de recherches en arboriculture de Dresde-Pillnitz.
+Les éditeurs en sont Davodeau Ligonnière et Starfruit.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété a été obtenue par croisement de Clivia × Undine.
 </t>
@@ -607,9 +625,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variétés pollinisatrices : Pinova, Elstar, Remo, Crimson Crisp Coop 39, Opal UEB32642[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variétés pollinisatrices : Pinova, Elstar, Remo, Crimson Crisp Coop 39, Opal UEB32642.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Pilot(e) n'est pas une variété génétiquement résistante à la tavelure du pommier mais y a toutefois une faible susceptibilité. La Pilot est intéressante en culture bio par sa résistance aux maladies[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pilot(e) n'est pas une variété génétiquement résistante à la tavelure du pommier mais y a toutefois une faible susceptibilité. La Pilot est intéressante en culture bio par sa résistance aux maladies.
 Petite sensibilité à l'oïdium.
 Variété retenue pour sa rusticité globale.
 Conservation : bonne.</t>
